--- a/contents/battle/battle_6/battle_6_node_map.xlsx
+++ b/contents/battle/battle_6/battle_6_node_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle\battle_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016298E2-F644-4940-90B8-E43399C2D3FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBED656-AFE3-4263-93E0-C05D2F88935E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:S9"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/contents/battle/battle_6/battle_6_node_map.xlsx
+++ b/contents/battle/battle_6/battle_6_node_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle\battle_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBED656-AFE3-4263-93E0-C05D2F88935E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C713F9-BACA-4265-872F-22D8CA7244EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
